--- a/WIP/files/Q07.xlsx
+++ b/WIP/files/Q07.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steffin Rayen\Desktop\GIT_WORKSPACE\fluffy-chainsaw\WIP\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A536A058-A7F5-4958-8261-3F4D4E431040}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBEAA50-2001-4EC5-B3D3-309642F1943C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" activeTab="2" xr2:uid="{71E531FF-C711-4B9C-BDCC-F50E60E37555}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{71E531FF-C711-4B9C-BDCC-F50E60E37555}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="97">
   <si>
     <t>First Name</t>
   </si>
@@ -39,268 +38,286 @@
     <t>DOB</t>
   </si>
   <si>
-    <t>Ouput</t>
-  </si>
-  <si>
-    <t>Mun</t>
-  </si>
-  <si>
-    <t>Young-Hwan</t>
-  </si>
-  <si>
     <t>Kan</t>
   </si>
   <si>
-    <t>Ja-Kyung</t>
-  </si>
-  <si>
-    <t>Um</t>
-  </si>
-  <si>
-    <t>Se-Yoon</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Chunso</t>
-  </si>
-  <si>
     <t>Nam</t>
   </si>
   <si>
-    <t>Eun-Soo</t>
-  </si>
-  <si>
-    <t>Om</t>
-  </si>
-  <si>
-    <t>Hyun-Shik</t>
-  </si>
-  <si>
-    <t>Sung-Hyun</t>
-  </si>
-  <si>
-    <t>Tongbang</t>
-  </si>
-  <si>
-    <t>Yejun</t>
-  </si>
-  <si>
-    <t>Muk</t>
-  </si>
-  <si>
-    <t>Jung-Ho</t>
-  </si>
-  <si>
-    <t>Nang</t>
-  </si>
-  <si>
     <t>Kwang-Seon</t>
   </si>
   <si>
-    <t>Pyon</t>
-  </si>
-  <si>
-    <t>Joon-Ho</t>
-  </si>
-  <si>
-    <t>Ki</t>
-  </si>
-  <si>
-    <t>Hyun-Woo</t>
-  </si>
-  <si>
     <t>P'o</t>
   </si>
   <si>
-    <t>Chin-Ho</t>
-  </si>
-  <si>
-    <t>Chun</t>
-  </si>
-  <si>
-    <t>Seong</t>
-  </si>
-  <si>
-    <t>Hyong</t>
-  </si>
-  <si>
-    <t>Dae-Ho</t>
-  </si>
-  <si>
     <t>Nam-Sun</t>
   </si>
   <si>
-    <t>Tu</t>
-  </si>
-  <si>
-    <t>Duck-Young</t>
-  </si>
-  <si>
-    <t>Sin</t>
-  </si>
-  <si>
-    <t>Soo-Hyun</t>
-  </si>
-  <si>
     <t>Chup</t>
   </si>
   <si>
-    <t>Kwang-Sun-</t>
-  </si>
-  <si>
-    <t>Hung</t>
-  </si>
-  <si>
-    <t>Jun-Yeong</t>
-  </si>
-  <si>
     <t>Rim</t>
   </si>
   <si>
-    <t>Su-Bin</t>
-  </si>
-  <si>
-    <t>Ogum</t>
-  </si>
-  <si>
-    <t>Tae-Ran</t>
-  </si>
-  <si>
-    <t>Chung</t>
-  </si>
-  <si>
-    <t>Yujin</t>
-  </si>
-  <si>
-    <t>Tong</t>
-  </si>
-  <si>
-    <t>Tae-Yeon</t>
-  </si>
-  <si>
-    <t>Ye</t>
-  </si>
-  <si>
-    <t>Ri-Na</t>
-  </si>
-  <si>
-    <t>Yong</t>
-  </si>
-  <si>
-    <t>Min-Hee</t>
-  </si>
-  <si>
     <t>Ryuk</t>
   </si>
   <si>
-    <t>Seo-Yun</t>
-  </si>
-  <si>
-    <t>Pong</t>
-  </si>
-  <si>
-    <t>Ji-Su</t>
-  </si>
-  <si>
-    <t>Ha-Sun</t>
-  </si>
-  <si>
-    <t>Tokko</t>
-  </si>
-  <si>
-    <t>Na-Woon</t>
-  </si>
-  <si>
-    <t>Mun Young-Hwan is of the age 58</t>
-  </si>
-  <si>
-    <t>Kan Ja-Kyung is of the age 56</t>
-  </si>
-  <si>
-    <t>Um Se-Yoon is of the age 48</t>
-  </si>
-  <si>
-    <t>No Chunso is of the age 46</t>
-  </si>
-  <si>
-    <t>Nam Eun-Soo is of the age 43</t>
-  </si>
-  <si>
-    <t>Om Hyun-Shik is of the age 43</t>
-  </si>
-  <si>
-    <t>Um Sung-Hyun is of the age 40</t>
-  </si>
-  <si>
-    <t>Tongbang Yejun is of the age 40</t>
-  </si>
-  <si>
-    <t>Muk Jung-Ho is of the age 39</t>
-  </si>
-  <si>
-    <t>Nang Kwang-Seon is of the age 38</t>
-  </si>
-  <si>
-    <t>Pyon Joon-Ho is of the age 38</t>
-  </si>
-  <si>
-    <t>Ki Hyun-Woo is of the age 38</t>
-  </si>
-  <si>
-    <t>P'o Chin-Ho is of the age 33</t>
-  </si>
-  <si>
-    <t>Chun Seong is of the age 29</t>
-  </si>
-  <si>
-    <t>Hyong Dae-Ho is of the age 21</t>
-  </si>
-  <si>
-    <t>Chun Nam-Sun is of the age 20</t>
-  </si>
-  <si>
-    <t>Tu Duck-Young is of the age 19</t>
-  </si>
-  <si>
-    <t>Sin Soo-Hyun is of the age 9</t>
-  </si>
-  <si>
-    <t>Chup Kwang-Sun- is of the age 8</t>
-  </si>
-  <si>
-    <t>Hung Jun-Yeong is of the age 6</t>
-  </si>
-  <si>
-    <t>Rim Su-Bin is of the age 118</t>
-  </si>
-  <si>
-    <t>Ogum Tae-Ran is of the age 118</t>
-  </si>
-  <si>
-    <t>Chung Yujin is of the age 118</t>
-  </si>
-  <si>
-    <t>Tong Tae-Yeon is of the age 118</t>
-  </si>
-  <si>
-    <t>Ye Ri-Na is of the age 118</t>
-  </si>
-  <si>
-    <t>Yong Min-Hee is of the age 118</t>
-  </si>
-  <si>
-    <t>Ryuk Seo-Yun is of the age 118</t>
-  </si>
-  <si>
-    <t>Pong Ji-Su is of the age 118</t>
-  </si>
-  <si>
-    <t>Chup Ha-Sun is of the age 118</t>
-  </si>
-  <si>
-    <t>Tokko Na-Woon is of the age 118</t>
+    <t>Chong-Hun</t>
+  </si>
+  <si>
+    <t>Na</t>
+  </si>
+  <si>
+    <t>Kyung-Ho</t>
+  </si>
+  <si>
+    <t>Sung</t>
+  </si>
+  <si>
+    <t>Jae-Hwa</t>
+  </si>
+  <si>
+    <t>Chu</t>
+  </si>
+  <si>
+    <t>Sung-Hoon</t>
+  </si>
+  <si>
+    <t>Yuk</t>
+  </si>
+  <si>
+    <t>Chun-Yong</t>
+  </si>
+  <si>
+    <t>Hyon</t>
+  </si>
+  <si>
+    <t>Young-Jae</t>
+  </si>
+  <si>
+    <t>Young</t>
+  </si>
+  <si>
+    <t>Jin-Hee</t>
+  </si>
+  <si>
+    <t>Ko</t>
+  </si>
+  <si>
+    <t>Do-Hyun</t>
+  </si>
+  <si>
+    <t>Somun</t>
+  </si>
+  <si>
+    <t>Ji-Hoon</t>
+  </si>
+  <si>
+    <t>Ping</t>
+  </si>
+  <si>
+    <t>Tohyon</t>
+  </si>
+  <si>
+    <t>Pi</t>
+  </si>
+  <si>
+    <t>Ryom</t>
+  </si>
+  <si>
+    <t>Sang-Hun</t>
+  </si>
+  <si>
+    <t>Yun</t>
+  </si>
+  <si>
+    <t>Dong-Jun</t>
+  </si>
+  <si>
+    <t>Ch'oe</t>
+  </si>
+  <si>
+    <t>Ki-Nam</t>
+  </si>
+  <si>
+    <t>Ah</t>
+  </si>
+  <si>
+    <t>Yong-Gi</t>
+  </si>
+  <si>
+    <t>Cha</t>
+  </si>
+  <si>
+    <t>Jae-Yong</t>
+  </si>
+  <si>
+    <t>Maeng</t>
+  </si>
+  <si>
+    <t>Yeong-Sik</t>
+  </si>
+  <si>
+    <t>Pang</t>
+  </si>
+  <si>
+    <t>In-Ho</t>
+  </si>
+  <si>
+    <t>Cho</t>
+  </si>
+  <si>
+    <t>Unji</t>
+  </si>
+  <si>
+    <t>Ma</t>
+  </si>
+  <si>
+    <t>Suk-Ja</t>
+  </si>
+  <si>
+    <t>Sonu</t>
+  </si>
+  <si>
+    <t>Yi-Hyun</t>
+  </si>
+  <si>
+    <t>P'i</t>
+  </si>
+  <si>
+    <t>Mi-Suk</t>
+  </si>
+  <si>
+    <t>Nan</t>
+  </si>
+  <si>
+    <t>Ye-Eun</t>
+  </si>
+  <si>
+    <t>Won</t>
+  </si>
+  <si>
+    <t>Yoon-Hee</t>
+  </si>
+  <si>
+    <t>Pin</t>
+  </si>
+  <si>
+    <t>Se-Eun</t>
+  </si>
+  <si>
+    <t>Tae</t>
+  </si>
+  <si>
+    <t>Geum-Suk</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Chihyon</t>
+  </si>
+  <si>
+    <t>Yong-Hui</t>
+  </si>
+  <si>
+    <t>Seong-Su</t>
+  </si>
+  <si>
+    <t>Sop</t>
+  </si>
+  <si>
+    <t>Hyeon-U</t>
+  </si>
+  <si>
+    <t>Sok</t>
+  </si>
+  <si>
+    <t>Kwang-Hyok</t>
+  </si>
+  <si>
+    <t>Se-Yeon</t>
+  </si>
+  <si>
+    <t>Namgung</t>
+  </si>
+  <si>
+    <t>Yeong-Jin</t>
+  </si>
+  <si>
+    <t>Hyuk</t>
+  </si>
+  <si>
+    <t>Son</t>
+  </si>
+  <si>
+    <t>Yong-Ho</t>
+  </si>
+  <si>
+    <t>Ru</t>
+  </si>
+  <si>
+    <t>Chuwon</t>
+  </si>
+  <si>
+    <t>Shin</t>
+  </si>
+  <si>
+    <t>Ong</t>
+  </si>
+  <si>
+    <t>Yo-Han</t>
+  </si>
+  <si>
+    <t>T'ae</t>
+  </si>
+  <si>
+    <t>Doo-Na</t>
+  </si>
+  <si>
+    <t>Ch'ang</t>
+  </si>
+  <si>
+    <t>Seung-Hyun</t>
+  </si>
+  <si>
+    <t>Hyun-Joo</t>
+  </si>
+  <si>
+    <t>T'an</t>
+  </si>
+  <si>
+    <t>Hee-Bon</t>
+  </si>
+  <si>
+    <t>Mangjol</t>
+  </si>
+  <si>
+    <t>Mi-So</t>
+  </si>
+  <si>
+    <t>Ryang</t>
+  </si>
+  <si>
+    <t>Sung-Yun</t>
+  </si>
+  <si>
+    <t>Chang</t>
+  </si>
+  <si>
+    <t>Yoon-Ji</t>
+  </si>
+  <si>
+    <t>Ri</t>
+  </si>
+  <si>
+    <t>P'ung</t>
+  </si>
+  <si>
+    <t>Chong-Hui</t>
+  </si>
+  <si>
+    <t>Kangjon</t>
   </si>
 </sst>
 </file>
@@ -653,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E769EE6-FEBC-4E2E-B813-836F839494A9}">
-  <dimension ref="A1:A31"/>
+  <dimension ref="A1:A51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -668,152 +685,252 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -823,10 +940,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E123DC-0FE4-423D-A726-561983971141}">
-  <dimension ref="A1:A31"/>
+  <dimension ref="A1:A51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A31"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -838,152 +955,252 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -993,10 +1210,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{156A08F2-6E2A-483B-9E76-7BB4B257784D}">
-  <dimension ref="A1:A21"/>
+  <dimension ref="A1:A51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1011,274 +1228,256 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>22106</v>
+        <v>36864</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>22891</v>
+        <v>36983</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>25718</v>
+        <v>37090</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>26468</v>
+        <v>37313</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>27321</v>
+        <v>37497</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>27590</v>
+        <v>37634</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>28512</v>
+        <v>37907</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>28626</v>
+        <v>38034</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>29040</v>
+        <v>38069</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>29172</v>
+        <v>39363</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>29217</v>
+        <v>39580</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>29332</v>
+        <v>39681</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>31077</v>
+        <v>40028</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>32608</v>
+        <v>40472</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>35380</v>
+        <v>40617</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>35715</v>
+        <v>41310</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>36090</v>
+        <v>41351</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>40021</v>
+        <v>41542</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>40107</v>
+        <v>41855</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>41048</v>
+        <v>42194</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>42724</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>42725</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>42852</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>43222</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>43283</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>36950</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>37419</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>37522</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>38882</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>39647</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>39744</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>39833</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>40067</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>40357</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>40575</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>40630</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>40632</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>40781</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>40896</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>41137</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>41200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>41205</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>41472</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>41752</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>41794</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>41824</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>41837</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>42045</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>42297</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>42969</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48A2679D-C4A5-4D8E-A629-A2E3D2E4E76E}">
-  <dimension ref="A1:A31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>90</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/WIP/files/Q07.xlsx
+++ b/WIP/files/Q07.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steffin Rayen\Desktop\GIT_WORKSPACE\fluffy-chainsaw\WIP\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBEAA50-2001-4EC5-B3D3-309642F1943C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1941C487-54E5-4FCE-8A5B-1EC353AC546C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{71E531FF-C711-4B9C-BDCC-F50E60E37555}"/>
   </bookViews>
@@ -672,9 +672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E769EE6-FEBC-4E2E-B813-836F839494A9}">
   <dimension ref="A1:A51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -942,9 +940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E123DC-0FE4-423D-A726-561983971141}">
   <dimension ref="A1:A51"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A51"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1212,9 +1208,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{156A08F2-6E2A-483B-9E76-7BB4B257784D}">
   <dimension ref="A1:A51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:A51"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
